--- a/content/ensino/segundo-semestre-de-2022/mes-10-dia-30-ava-matc65.xlsx
+++ b/content/ensino/segundo-semestre-de-2022/mes-10-dia-30-ava-matc65.xlsx
@@ -449,16 +449,16 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +624,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -691,10 +691,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -705,13 +705,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -723,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -740,25 +740,25 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -766,31 +766,31 @@
         <v>220216104</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -961,28 +961,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1043,10 +1043,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1150,7 +1150,7 @@
         <v>220215670</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1182,10 +1182,10 @@
         <v>221120311</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1249,10 +1249,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1310,13 +1310,13 @@
         <v>219216568</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1331,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1377,28 +1377,28 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1459,10 +1459,10 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1604,7 +1604,7 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1619,10 +1619,10 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1761,10 +1761,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1860,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1875,10 +1875,10 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
